--- a/BasisEqual/Hawaii_Basis.xlsx
+++ b/BasisEqual/Hawaii_Basis.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrEth\Documents\TestProject\Covid-19DataProject-master\BasisEqual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3E845-994C-4A79-85CB-14A83404AC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -184,11 +190,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +258,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -298,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +344,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +396,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,14 +589,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -588,7 +645,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -599,7 +656,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -610,7 +667,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -621,7 +678,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -635,29 +692,35 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
+      <c r="C8" s="2">
+        <v>43938</v>
+      </c>
       <c r="D8" s="2">
         <v>43946</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
+      <c r="C9" s="2">
+        <v>43907</v>
+      </c>
       <c r="D9" s="2">
         <v>43953</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,7 +734,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -685,7 +748,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -699,7 +762,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -713,7 +776,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -727,18 +790,21 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
+      <c r="C15" s="2">
+        <v>43907</v>
+      </c>
       <c r="D15" s="2">
         <v>44001</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -752,7 +818,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -766,7 +832,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -780,7 +846,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -794,18 +860,21 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
+      <c r="C20" s="2">
+        <v>43915</v>
+      </c>
       <c r="D20" s="2">
         <v>44001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -819,7 +888,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -833,7 +902,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -847,18 +916,21 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
+      <c r="C24" s="2">
+        <v>43915</v>
+      </c>
       <c r="D24" s="2">
         <v>44001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -872,7 +944,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -886,7 +958,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -897,7 +969,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -911,7 +983,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -925,7 +997,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -939,7 +1011,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -953,7 +1025,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -967,7 +1039,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -981,7 +1053,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -995,7 +1067,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
